--- a/Real-time analysis/XLSXs/First_Cycles.xlsx
+++ b/Real-time analysis/XLSXs/First_Cycles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="60" windowWidth="22935" windowHeight="9510"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sample CSV1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -139,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,7 +750,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -785,7 +784,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -961,19 +959,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1049,11 +1047,11 @@
       </c>
       <c r="F2">
         <f ca="1">G2+RANDBETWEEN(-20,5)</f>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(80,90)</f>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L2">
         <v>382</v>
@@ -1065,31 +1063,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B42" ca="1" si="0">100*(10-EXP(-A3/RANDBETWEEN(9,11)))</f>
-        <v>910.51606831856304</v>
+        <v>908.68992837177382</v>
       </c>
       <c r="C3">
         <v>962.28654500000005</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D42" ca="1" si="1">E3+RANDBETWEEN(3,5)*A3/40</f>
-        <v>2.1006520000000002</v>
+        <v>2.0756520000000003</v>
       </c>
       <c r="E3">
         <v>2.0006520000000001</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">G3+RANDBETWEEN(-20,5)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G6" ca="1" si="3">RANDBETWEEN(80,90)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3">
         <v>383</v>
@@ -1101,31 +1099,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>919.92625970831932</v>
+        <v>918.12692469220178</v>
       </c>
       <c r="C4">
         <v>962.32348000000002</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0487419999999998</v>
+        <v>1.998742</v>
       </c>
       <c r="E4">
         <v>1.7987420000000001</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4">
         <v>385</v>
@@ -1137,31 +1135,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>925.91817793182827</v>
+        <v>928.34686894262109</v>
       </c>
       <c r="C5">
         <v>961.10460999999998</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.98811</v>
+        <v>2.06311</v>
       </c>
       <c r="E5">
         <v>1.76311</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L5">
         <v>386</v>
@@ -1173,7 +1171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1193,11 +1191,11 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L6">
         <v>389</v>
@@ -1209,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1222,18 +1220,18 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0317970000000001</v>
+        <v>1.9067970000000001</v>
       </c>
       <c r="E7">
         <v>1.4067970000000001</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <f ca="1">RANDBETWEEN(75,85)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L7">
         <v>391</v>
@@ -1245,31 +1243,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>942.042172121519</v>
+        <v>948.65828809674076</v>
       </c>
       <c r="C8">
         <v>960.99380399999995</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3745440000000002</v>
+        <v>2.2245439999999999</v>
       </c>
       <c r="E8">
         <v>1.624544</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G16" ca="1" si="4">RANDBETWEEN(75,85)</f>
-        <v>82</v>
+        <f t="shared" ref="G8:G15" ca="1" si="4">RANDBETWEEN(75,85)</f>
+        <v>75</v>
       </c>
       <c r="L8">
         <v>394</v>
@@ -1281,13 +1279,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>950.34146962085902</v>
+        <v>954.05741759640728</v>
       </c>
       <c r="C9">
         <v>960.77219100000002</v>
@@ -1301,11 +1299,11 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L9">
         <v>397</v>
@@ -1317,13 +1315,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>955.06710358827786</v>
+        <v>958.88877094928125</v>
       </c>
       <c r="C10">
         <v>960.29202999999995</v>
@@ -1337,11 +1335,11 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L10">
         <v>401</v>
@@ -1353,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1373,11 +1371,11 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L11">
         <v>401</v>
@@ -1389,13 +1387,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>959.71096784708664</v>
+        <v>967.08070121920946</v>
       </c>
       <c r="C12">
         <v>958.92541900000003</v>
@@ -1409,11 +1407,11 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12">
         <v>405</v>
@@ -1425,7 +1423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1438,18 +1436,18 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.208043</v>
+        <v>2.4830430000000003</v>
       </c>
       <c r="E13">
         <v>1.383043</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L13">
         <v>409</v>
@@ -1461,13 +1459,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>973.64028618842724</v>
+        <v>966.40890187608375</v>
       </c>
       <c r="C14">
         <v>958.29751599999997</v>
@@ -1481,7 +1479,7 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
@@ -1497,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1510,18 +1508,18 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3105340000000001</v>
+        <v>2.960534</v>
       </c>
       <c r="E15">
         <v>1.335534</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L15">
         <v>417</v>
@@ -1533,13 +1531,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>975.34030360583938</v>
+        <v>978.89279122089101</v>
       </c>
       <c r="C16">
         <v>956.37687200000005</v>
@@ -1553,11 +1551,11 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16">
         <v>421</v>
@@ -1566,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1586,11 +1584,11 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G23" ca="1" si="5">RANDBETWEEN(70,80)</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L17">
         <v>425</v>
@@ -1602,31 +1600,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>983.09866845939348</v>
+        <v>979.81034820053446</v>
       </c>
       <c r="C18">
         <v>956.11832400000003</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7296640000000001</v>
+        <v>3.129664</v>
       </c>
       <c r="E18">
         <v>1.129664</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L18">
         <v>429</v>
@@ -1638,20 +1636,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>978.67850666855372</v>
+        <v>981.73164759472661</v>
       </c>
       <c r="C19">
         <v>955.85977600000001</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.376951</v>
+        <v>3.2269509999999997</v>
       </c>
       <c r="E19">
         <v>1.1019509999999999</v>
@@ -1662,7 +1660,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L19">
         <v>434</v>
@@ -1674,31 +1672,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>983.47011117784132</v>
+        <v>980.53132916684899</v>
       </c>
       <c r="C20">
         <v>955.67509900000005</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2569340000000002</v>
+        <v>2.3569339999999999</v>
       </c>
       <c r="E20">
         <v>1.006934</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L20">
         <v>438</v>
@@ -1710,31 +1708,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>985.04313807773656</v>
+        <v>987.889666760767</v>
       </c>
       <c r="C21">
         <v>954.93638999999996</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8792209999999998</v>
+        <v>2.4042210000000002</v>
       </c>
       <c r="E21">
         <v>0.97922100000000001</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L21">
         <v>442</v>
@@ -1746,7 +1744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1766,11 +1764,11 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L22">
         <v>442</v>
@@ -1782,31 +1780,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>985.17849336624795</v>
+        <v>987.75435717470191</v>
       </c>
       <c r="C23">
         <v>954.49316399999998</v>
       </c>
       <c r="D23">
         <f ca="1">E23+RANDBETWEEN(3,5)*A23/40</f>
-        <v>3.0475490000000001</v>
+        <v>2.5225489999999997</v>
       </c>
       <c r="E23">
         <v>0.94754899999999997</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>446</v>
@@ -1818,7 +1816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1831,14 +1829,14 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5144089999999997</v>
+        <v>3.6144090000000002</v>
       </c>
       <c r="E24">
         <v>0.86440899999999998</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <f ca="1">RANDBETWEEN(65,75)</f>
@@ -1854,31 +1852,31 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>992.23509182965245</v>
+        <v>987.64252559383863</v>
       </c>
       <c r="C25">
         <v>953.49590699999999</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.101064</v>
+        <v>2.5260639999999999</v>
       </c>
       <c r="E25">
         <v>0.801064</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25:G32" ca="1" si="6">RANDBETWEEN(65,75)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L25">
         <v>454</v>
@@ -1887,31 +1885,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>993.0516548777199</v>
+        <v>988.7163812682943</v>
       </c>
       <c r="C26">
         <v>952.53558499999997</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7773099999999999</v>
+        <v>3.1773099999999999</v>
       </c>
       <c r="E26">
         <v>0.77730999999999995</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L26">
         <v>459</v>
@@ -1920,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1933,14 +1931,14 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8429250000000001</v>
+        <v>2.5929250000000001</v>
       </c>
       <c r="E27">
         <v>0.71792500000000004</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
@@ -1953,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1966,18 +1964,18 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9877199999999999</v>
+        <v>2.6877200000000001</v>
       </c>
       <c r="E28">
         <v>0.73772000000000004</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L28">
         <v>467</v>
@@ -1986,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2006,11 +2004,11 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L29">
         <v>471</v>
@@ -2019,13 +2017,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>993.9189937374781</v>
+        <v>992.1562609482869</v>
       </c>
       <c r="C30">
         <v>950.68881299999998</v>
@@ -2039,11 +2037,11 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L30">
         <v>476</v>
@@ -2052,31 +2050,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>994.49767799435926</v>
+        <v>996.01336321762744</v>
       </c>
       <c r="C31">
         <v>950.947361</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8493749999999998</v>
+        <v>4.2993749999999995</v>
       </c>
       <c r="E31">
         <v>0.67437499999999995</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G31">
         <f ca="1">RANDBETWEEN(65,75)</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L31">
         <v>480</v>
@@ -2085,13 +2083,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>993.46025967701394</v>
+        <v>995.0212931632135</v>
       </c>
       <c r="C32">
         <v>950.35639400000002</v>
@@ -2105,11 +2103,11 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L32">
         <v>484</v>
@@ -2118,13 +2116,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>994.02855842678139</v>
+        <v>996.80775081651041</v>
       </c>
       <c r="C33">
         <v>949.65462000000002</v>
@@ -2138,7 +2136,7 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <f ca="1">RANDBETWEEN(65,75)</f>
@@ -2151,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2171,11 +2169,11 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G97" ca="1" si="7">RANDBETWEEN(65,75)</f>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L34">
         <v>489</v>
@@ -2184,31 +2182,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>997.44384667934924</v>
+        <v>995.0212931632135</v>
       </c>
       <c r="C35">
         <v>948.10333100000003</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8635219999999997</v>
+        <v>3.0385219999999999</v>
       </c>
       <c r="E35">
         <v>0.56352199999999997</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L35">
         <v>493</v>
@@ -2217,31 +2215,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>997.71265350887609</v>
+        <v>995.45393922117091</v>
       </c>
       <c r="C36">
         <v>948.28800799999999</v>
       </c>
       <c r="D36">
         <f ca="1">E36+RANDBETWEEN(3,5)*A36/40</f>
-        <v>4.7580960000000001</v>
+        <v>3.908096</v>
       </c>
       <c r="E36">
         <v>0.50809599999999999</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L36">
         <v>498</v>
@@ -2250,13 +2248,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>997.95319242856499</v>
+        <v>996.9802616577681</v>
       </c>
       <c r="C37">
         <v>947.58623499999999</v>
@@ -2270,11 +2268,11 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L37">
         <v>502</v>
@@ -2283,31 +2281,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>996.20970855990413</v>
+        <v>998.16843611112665</v>
       </c>
       <c r="C38">
         <v>947.32768699999997</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1368330000000002</v>
+        <v>4.0368329999999997</v>
       </c>
       <c r="E38">
         <v>0.43683300000000003</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L38">
         <v>506</v>
@@ -2316,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2329,14 +2327,14 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0301609999999997</v>
+        <v>3.180161</v>
       </c>
       <c r="E39">
         <v>0.40516099999999999</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="7"/>
@@ -2349,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2362,18 +2360,18 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2234880000000001</v>
+        <v>5.123488</v>
       </c>
       <c r="E40">
         <v>0.37348799999999999</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L40">
         <v>515</v>
@@ -2382,13 +2380,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>997.97580885541959</v>
+        <v>997.1144496609611</v>
       </c>
       <c r="C41">
         <v>946.10881700000004</v>
@@ -2402,11 +2400,11 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L41">
         <v>519</v>
@@ -2415,13 +2413,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>997.36520191855504</v>
+        <v>998.82563715429797</v>
       </c>
       <c r="C42">
         <v>945.44397900000001</v>
@@ -2435,11 +2433,11 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L42">
         <v>523</v>
@@ -2448,13 +2446,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <f ca="1">B42-5</f>
-        <v>992.36520191855504</v>
+        <v>993.82563715429797</v>
       </c>
       <c r="C43">
         <v>944.52059199999997</v>
@@ -2468,11 +2466,11 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L43">
         <v>527</v>
@@ -2481,31 +2479,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <f ca="1">B43-4</f>
-        <v>988.36520191855504</v>
+        <v>989.82563715429797</v>
       </c>
       <c r="C44">
         <v>944.81607599999995</v>
       </c>
       <c r="D44">
         <f ca="1">E44+RANDBETWEEN(-1,1)</f>
-        <v>1.227004</v>
+        <v>0.22700400000000001</v>
       </c>
       <c r="E44">
         <v>0.22700400000000001</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L44">
         <v>531</v>
@@ -2514,31 +2512,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <f ca="1">B44-5</f>
-        <v>983.36520191855504</v>
+        <v>984.82563715429797</v>
       </c>
       <c r="C45">
         <v>943.70801200000005</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:D108" ca="1" si="8">E45+RANDBETWEEN(-1,1)</f>
-        <v>-0.733406</v>
+        <f t="shared" ref="D45:D71" ca="1" si="8">E45+RANDBETWEEN(-1,1)</f>
+        <v>0.266594</v>
       </c>
       <c r="E45">
         <v>0.266594</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L45">
         <v>531</v>
@@ -2547,20 +2545,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <f ca="1">B45-5</f>
-        <v>978.36520191855504</v>
+        <v>979.82563715429797</v>
       </c>
       <c r="C46">
         <v>943.41252899999995</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="8"/>
-        <v>1.207209</v>
+        <v>0.207209</v>
       </c>
       <c r="E46">
         <v>0.207209</v>
@@ -2571,7 +2569,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L46">
         <v>536</v>
@@ -2580,13 +2578,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <f ca="1">B46-3</f>
-        <v>975.36520191855504</v>
+        <v>976.82563715429797</v>
       </c>
       <c r="C47">
         <v>942.74769100000003</v>
@@ -2600,11 +2598,11 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L47">
         <v>540</v>
@@ -2613,13 +2611,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B58" ca="1" si="9">B47-4</f>
-        <v>971.36520191855504</v>
+        <f t="shared" ref="B48" ca="1" si="9">B47-4</f>
+        <v>972.82563715429797</v>
       </c>
       <c r="C48">
         <v>943.00623900000005</v>
@@ -2633,11 +2631,11 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L48">
         <v>544</v>
@@ -2646,31 +2644,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B58" ca="1" si="10">B48-5</f>
-        <v>966.36520191855504</v>
+        <f t="shared" ref="B49:B50" ca="1" si="10">B48-5</f>
+        <v>967.82563715429797</v>
       </c>
       <c r="C49">
         <v>942.67381999999998</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.76507800000000004</v>
+        <v>0.23492199999999999</v>
       </c>
       <c r="E49">
         <v>0.23492199999999999</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L49">
         <v>548</v>
@@ -2679,31 +2677,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="10"/>
-        <v>961.36520191855504</v>
+        <v>962.82563715429797</v>
       </c>
       <c r="C50">
         <v>941.63962700000002</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1755370000000001</v>
+        <v>0.175537</v>
       </c>
       <c r="E50">
         <v>0.175537</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L50">
         <v>552</v>
@@ -2712,31 +2710,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:B58" ca="1" si="11">B50-3</f>
-        <v>958.36520191855504</v>
+        <f t="shared" ref="B51" ca="1" si="11">B50-3</f>
+        <v>959.82563715429797</v>
       </c>
       <c r="C51">
         <v>941.41801399999997</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="8"/>
-        <v>0.151782</v>
+        <v>1.1517820000000001</v>
       </c>
       <c r="E51">
         <v>0.151782</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L51">
         <v>557</v>
@@ -2745,31 +2743,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:B58" ca="1" si="12">B51-4</f>
-        <v>954.36520191855504</v>
+        <f t="shared" ref="B52" ca="1" si="12">B51-4</f>
+        <v>955.82563715429797</v>
       </c>
       <c r="C52">
         <v>940.30995099999996</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14386399999999999</v>
+        <v>1.143864</v>
       </c>
       <c r="E52">
         <v>0.14386399999999999</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L52">
         <v>561</v>
@@ -2778,31 +2776,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B58" ca="1" si="13">B52-5</f>
-        <v>949.36520191855504</v>
+        <f t="shared" ref="B53:B54" ca="1" si="13">B52-5</f>
+        <v>950.82563715429797</v>
       </c>
       <c r="C53">
         <v>940.16220899999996</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="8"/>
-        <v>0.175537</v>
+        <v>1.1755370000000001</v>
       </c>
       <c r="E53">
         <v>0.175537</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L53">
         <v>565</v>
@@ -2811,31 +2809,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="13"/>
-        <v>944.36520191855504</v>
+        <v>945.82563715429797</v>
       </c>
       <c r="C54">
         <v>940.05140300000005</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="8"/>
-        <v>0.116151</v>
+        <v>-0.883849</v>
       </c>
       <c r="E54">
         <v>0.116151</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L54">
         <v>570</v>
@@ -2844,13 +2842,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:B58" ca="1" si="14">B54-3</f>
-        <v>941.36520191855504</v>
+        <f t="shared" ref="B55" ca="1" si="14">B54-3</f>
+        <v>942.82563715429797</v>
       </c>
       <c r="C55">
         <v>938.64785500000005</v>
@@ -2864,11 +2862,11 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L55">
         <v>574</v>
@@ -2877,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2890,18 +2888,18 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0963560000000001</v>
+        <v>-0.903644</v>
       </c>
       <c r="E56">
         <v>9.6355999999999997E-2</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L56">
         <v>574</v>
@@ -2910,31 +2908,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <f ca="1">C57+RANDBETWEEN(-2,2)</f>
-        <v>937.28124400000002</v>
+        <v>938.28124400000002</v>
       </c>
       <c r="C57">
         <v>937.28124400000002</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.94719299999999995</v>
+        <v>1.052807</v>
       </c>
       <c r="E57">
         <v>5.2807E-2</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L57">
         <v>579</v>
@@ -2943,13 +2941,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:B71" ca="1" si="15">C58+RANDBETWEEN(-2,2)</f>
-        <v>935.98301700000002</v>
+        <v>936.98301700000002</v>
       </c>
       <c r="C58">
         <v>937.98301700000002</v>
@@ -2963,11 +2961,11 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L58">
         <v>584</v>
@@ -2976,13 +2974,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="15"/>
-        <v>938.98576000000003</v>
+        <v>935.98576000000003</v>
       </c>
       <c r="C59">
         <v>936.98576000000003</v>
@@ -3000,7 +2998,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L59">
         <v>588</v>
@@ -3009,31 +3007,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="15"/>
-        <v>934.320922</v>
+        <v>937.320922</v>
       </c>
       <c r="C60">
         <v>936.320922</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.97094800000000003</v>
+        <v>1.0290520000000001</v>
       </c>
       <c r="E60">
         <v>2.9052000000000001E-2</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L60">
         <v>593</v>
@@ -3042,31 +3040,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="15"/>
-        <v>938.57947000000001</v>
+        <v>937.57947000000001</v>
       </c>
       <c r="C61">
         <v>936.57947000000001</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.95511199999999996</v>
+        <v>1.044888</v>
       </c>
       <c r="E61">
         <v>4.4887999999999997E-2</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L61">
         <v>597</v>
@@ -3075,13 +3073,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="15"/>
-        <v>935.619148</v>
+        <v>933.619148</v>
       </c>
       <c r="C62">
         <v>935.619148</v>
@@ -3095,11 +3093,11 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L62">
         <v>602</v>
@@ -3108,31 +3106,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="15"/>
-        <v>937.32366500000001</v>
+        <v>936.32366500000001</v>
       </c>
       <c r="C63">
         <v>935.32366500000001</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96174899999999997</v>
+        <v>-1.038251</v>
       </c>
       <c r="E63">
         <v>-3.8251E-2</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L63">
         <v>606</v>
@@ -3141,31 +3139,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="15"/>
-        <v>933.84350400000005</v>
+        <v>936.84350400000005</v>
       </c>
       <c r="C64">
         <v>934.84350400000005</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0857600000000001</v>
+        <v>-8.5760000000000003E-2</v>
       </c>
       <c r="E64">
         <v>-8.5760000000000003E-2</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L64">
         <v>611</v>
@@ -3174,31 +3172,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="15"/>
-        <v>936.03092400000003</v>
+        <v>935.03092400000003</v>
       </c>
       <c r="C65">
         <v>934.03092400000003</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="8"/>
-        <v>0.85881399999999997</v>
+        <v>-1.141186</v>
       </c>
       <c r="E65">
         <v>-0.14118600000000001</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L65">
         <v>615</v>
@@ -3207,31 +3205,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="15"/>
-        <v>935.43721400000004</v>
+        <v>936.43721400000004</v>
       </c>
       <c r="C66">
         <v>934.43721400000004</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.13722699999999999</v>
+        <v>0.86277300000000001</v>
       </c>
       <c r="E66">
         <v>-0.13722699999999999</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L66">
         <v>620</v>
@@ -3240,31 +3238,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="15"/>
-        <v>935.40302099999997</v>
+        <v>933.40302099999997</v>
       </c>
       <c r="C67">
         <v>933.40302099999997</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82714100000000002</v>
+        <v>-0.17285900000000001</v>
       </c>
       <c r="E67">
         <v>-0.17285900000000001</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" ca="1" si="16">G67+RANDBETWEEN(-20,5)</f>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L67">
         <v>620</v>
@@ -3273,31 +3271,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="15"/>
-        <v>931.32915000000003</v>
+        <v>933.32915000000003</v>
       </c>
       <c r="C68">
         <v>933.32915000000003</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.26391599999999998</v>
+        <v>0.73608399999999996</v>
       </c>
       <c r="E68">
         <v>-0.26391599999999998</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="16"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L68">
         <v>624</v>
@@ -3306,31 +3304,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="15"/>
-        <v>930.40576399999998</v>
+        <v>932.40576399999998</v>
       </c>
       <c r="C69">
         <v>932.40576399999998</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="8"/>
-        <v>0.84693700000000005</v>
+        <v>-0.153063</v>
       </c>
       <c r="E69">
         <v>-0.153063</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="16"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L69">
         <v>629</v>
@@ -3339,31 +3337,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="15"/>
-        <v>933.55624899999998</v>
+        <v>932.55624899999998</v>
       </c>
       <c r="C70">
         <v>931.55624899999998</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.24016199999999999</v>
+        <v>-1.240162</v>
       </c>
       <c r="E70">
         <v>-0.24016199999999999</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L70">
         <v>633</v>
@@ -3372,13 +3370,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="15"/>
-        <v>929.26076499999999</v>
+        <v>933.26076499999999</v>
       </c>
       <c r="C71">
         <v>931.26076499999999</v>
@@ -3392,11 +3390,11 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L71">
         <v>637</v>
@@ -3405,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3425,11 +3423,11 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L72">
         <v>642</v>
@@ -3438,31 +3436,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <f t="shared" ref="B73:B132" ca="1" si="17">100*(10-EXP(($A$72-A73)/RANDBETWEEN(10,12)))</f>
-        <v>909.51625819640401</v>
+        <v>907.99555853706761</v>
       </c>
       <c r="C73">
         <v>930.52205600000002</v>
       </c>
       <c r="D73">
         <f t="shared" ref="D73:D132" ca="1" si="18">E73+RANDBETWEEN(3,5)*(A73-$A$72)/40</f>
-        <v>-0.22601500000000002</v>
+        <v>-0.25101499999999999</v>
       </c>
       <c r="E73">
         <v>-0.35101500000000002</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L73">
         <v>646</v>
@@ -3471,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3484,18 +3482,18 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.23811399999999999</v>
+        <v>-0.188114</v>
       </c>
       <c r="E74">
         <v>-0.438114</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="16"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L74">
         <v>651</v>
@@ -3504,31 +3502,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="17"/>
-        <v>922.11992169285941</v>
+        <v>923.86996133031266</v>
       </c>
       <c r="C75">
         <v>929.26625100000001</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.189581</v>
+        <v>-0.26458099999999996</v>
       </c>
       <c r="E75">
         <v>-0.48958099999999999</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="16"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L75">
         <v>655</v>
@@ -3537,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3550,18 +3548,18 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="18"/>
-        <v>0.12919000000000003</v>
+        <v>2.9190000000000049E-2</v>
       </c>
       <c r="E76">
         <v>-0.37080999999999997</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="16"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L76">
         <v>659</v>
@@ -3570,31 +3568,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="17"/>
-        <v>934.07593697995571</v>
+        <v>936.52635810597178</v>
       </c>
       <c r="C77">
         <v>928.67528300000004</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="18"/>
-        <v>0.12919000000000003</v>
+        <v>4.190000000000027E-3</v>
       </c>
       <c r="E77">
         <v>-0.37080999999999997</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L77">
         <v>664</v>
@@ -3603,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3623,11 +3621,11 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L78">
         <v>664</v>
@@ -3636,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3656,11 +3654,11 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L79">
         <v>668</v>
@@ -3669,27 +3667,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="17"/>
-        <v>948.65828809674076</v>
+        <v>951.67749188101743</v>
       </c>
       <c r="C80">
         <v>928.158187</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="18"/>
-        <v>0.48065700000000006</v>
+        <v>0.28065699999999999</v>
       </c>
       <c r="E80">
         <v>-0.31934299999999999</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="16"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
@@ -3702,13 +3700,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="17"/>
-        <v>959.34303402594003</v>
+        <v>952.76334472589849</v>
       </c>
       <c r="C81">
         <v>926.97625200000004</v>
@@ -3722,11 +3720,11 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L81">
         <v>677</v>
@@ -3735,13 +3733,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="17"/>
-        <v>956.54017914929227</v>
+        <v>959.71096784708664</v>
       </c>
       <c r="C82">
         <v>926.56996200000003</v>
@@ -3755,11 +3753,11 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="16"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L82">
         <v>681</v>
@@ -3768,31 +3766,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="17"/>
-        <v>966.71289163019196</v>
+        <v>960.01503456551518</v>
       </c>
       <c r="C83">
         <v>925.57270500000004</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="18"/>
-        <v>0.68959900000000007</v>
+        <v>0.41459899999999994</v>
       </c>
       <c r="E83">
         <v>-0.41040100000000002</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="16"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L83">
         <v>685</v>
@@ -3801,31 +3799,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="17"/>
-        <v>969.88057880877977</v>
+        <v>966.40890187608375</v>
       </c>
       <c r="C84">
         <v>925.86818900000003</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="18"/>
-        <v>0.75792700000000002</v>
+        <v>1.0579270000000001</v>
       </c>
       <c r="E84">
         <v>-0.44207299999999999</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="16"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L84">
         <v>690</v>
@@ -3834,31 +3832,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="17"/>
-        <v>969.32794424234442</v>
+        <v>972.74682069659877</v>
       </c>
       <c r="C85">
         <v>924.98173799999995</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="18"/>
-        <v>0.52896799999999999</v>
+        <v>1.178968</v>
       </c>
       <c r="E85">
         <v>-0.44603199999999998</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L85">
         <v>694</v>
@@ -3867,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3880,18 +3878,18 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="18"/>
-        <v>0.63563999999999998</v>
+        <v>1.3356399999999999</v>
       </c>
       <c r="E86">
         <v>-0.41436000000000001</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L86">
         <v>698</v>
@@ -3900,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3913,18 +3911,18 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4368859999999999</v>
+        <v>1.0618859999999999</v>
       </c>
       <c r="E87">
         <v>-0.438114</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L87">
         <v>702</v>
@@ -3933,31 +3931,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="17"/>
-        <v>973.64028618842724</v>
+        <v>979.81034820053446</v>
       </c>
       <c r="C88">
         <v>923.87367400000005</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="18"/>
-        <v>1.161886</v>
+        <v>0.76188599999999995</v>
       </c>
       <c r="E88">
         <v>-0.438114</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="16"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L88">
         <v>707</v>
@@ -3966,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3979,18 +3977,18 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="18"/>
-        <v>0.86855799999999994</v>
+        <v>1.718558</v>
       </c>
       <c r="E89">
         <v>-0.40644200000000003</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L89">
         <v>711</v>
@@ -3999,31 +3997,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="17"/>
-        <v>977.6869839851571</v>
+        <v>983.47011117784132</v>
       </c>
       <c r="C90">
         <v>922.21157900000003</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8356399999999999</v>
+        <v>1.38564</v>
       </c>
       <c r="E90">
         <v>-0.41436000000000001</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="16"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L90">
         <v>711</v>
@@ -4032,13 +4030,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="17"/>
-        <v>985.04313807773656</v>
+        <v>982.22314271718631</v>
       </c>
       <c r="C91">
         <v>922.54399799999999</v>
@@ -4052,11 +4050,11 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="16"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L91">
         <v>715</v>
@@ -4065,31 +4063,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="17"/>
-        <v>986.46647167633876</v>
+        <v>981.11243971624378</v>
       </c>
       <c r="C92">
         <v>921.32512799999995</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0579270000000001</v>
+        <v>2.0579269999999998</v>
       </c>
       <c r="E92">
         <v>-0.44207299999999999</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L92">
         <v>719</v>
@@ -4098,31 +4096,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="17"/>
-        <v>982.62260565495546</v>
+        <v>987.75435717470191</v>
       </c>
       <c r="C93">
         <v>921.21432200000004</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0681150000000001</v>
+        <v>1.5431150000000002</v>
       </c>
       <c r="E93">
         <v>-0.55688499999999996</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="16"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L93">
         <v>724</v>
@@ -4131,31 +4129,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="17"/>
-        <v>986.46647167633876</v>
+        <v>988.91968416376665</v>
       </c>
       <c r="C94">
         <v>920.40174200000001</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6351970000000002</v>
+        <v>2.1851970000000001</v>
       </c>
       <c r="E94">
         <v>-0.56480300000000006</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="16"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L94">
         <v>728</v>
@@ -4164,31 +4162,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="17"/>
-        <v>987.64252559383863</v>
+        <v>989.97411562771958</v>
       </c>
       <c r="C95">
         <v>920.40174200000001</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="18"/>
-        <v>1.7510329999999998</v>
+        <v>2.3260329999999998</v>
       </c>
       <c r="E95">
         <v>-0.54896699999999998</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="16"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L95">
         <v>732</v>
@@ -4197,13 +4195,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="17"/>
-        <v>986.46647167633876</v>
+        <v>988.7163812682943</v>
       </c>
       <c r="C96">
         <v>920.36480700000004</v>
@@ -4217,11 +4215,11 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L96">
         <v>736</v>
@@ -4230,31 +4228,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="17"/>
-        <v>989.69691965382367</v>
+        <v>991.79150013761023</v>
       </c>
       <c r="C97">
         <v>919.88464599999998</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="18"/>
-        <v>1.345828</v>
+        <v>2.595828</v>
       </c>
       <c r="E97">
         <v>-0.52917199999999998</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L97">
         <v>740</v>
@@ -4263,31 +4261,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="17"/>
-        <v>992.57264217856664</v>
+        <v>990.59224995599266</v>
       </c>
       <c r="C98">
         <v>919.03512999999998</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="18"/>
-        <v>2.7485409999999999</v>
+        <v>1.4485410000000001</v>
       </c>
       <c r="E98">
         <v>-0.50145899999999999</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="16"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G98">
         <f t="shared" ref="G98:G161" ca="1" si="19">RANDBETWEEN(65,75)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L98">
         <v>744</v>
@@ -4296,13 +4294,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="17"/>
-        <v>991.40977669621236</v>
+        <v>993.27944872602495</v>
       </c>
       <c r="C99">
         <v>919.33061399999997</v>
@@ -4316,11 +4314,11 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L99">
         <v>748</v>
@@ -4329,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4342,18 +4340,18 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6500090000000001</v>
+        <v>3.0500090000000002</v>
       </c>
       <c r="E100">
         <v>-0.44999099999999997</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="16"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="19"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L100">
         <v>752</v>
@@ -4362,27 +4360,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="17"/>
-        <v>992.83787625354967</v>
+        <v>994.49767799435926</v>
       </c>
       <c r="C101">
         <v>918.25948600000004</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="18"/>
-        <v>1.7606399999999998</v>
+        <v>2.4856400000000001</v>
       </c>
       <c r="E101">
         <v>-0.41436000000000001</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="19"/>
@@ -4395,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4408,18 +4406,18 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3277220000000001</v>
+        <v>1.8277220000000001</v>
       </c>
       <c r="E102">
         <v>-0.42227799999999999</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="16"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="19"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L102">
         <v>755</v>
@@ -4428,31 +4426,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="17"/>
-        <v>992.44781554912254</v>
+        <v>995.4950797606441</v>
       </c>
       <c r="C103">
         <v>917.37303499999996</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="18"/>
-        <v>3.409173</v>
+        <v>1.8591730000000002</v>
       </c>
       <c r="E103">
         <v>-0.46582699999999999</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="19"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L103">
         <v>759</v>
@@ -4461,13 +4459,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="17"/>
-        <v>994.54747242225653</v>
+        <v>993.0516548777199</v>
       </c>
       <c r="C104">
         <v>916.59739000000002</v>
@@ -4481,11 +4479,11 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="19"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L104">
         <v>763</v>
@@ -4494,13 +4492,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="17"/>
-        <v>995.0212931632135</v>
+        <v>996.31168325987596</v>
       </c>
       <c r="C105">
         <v>916.85593900000003</v>
@@ -4514,11 +4512,11 @@
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="16"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="19"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L105">
         <v>767</v>
@@ -4527,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4547,11 +4545,11 @@
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="16"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L106">
         <v>771</v>
@@ -4560,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4580,11 +4578,11 @@
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="16"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="19"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L107">
         <v>775</v>
@@ -4593,31 +4591,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="17"/>
-        <v>997.26762775527072</v>
+        <v>996.20970855990413</v>
       </c>
       <c r="C108">
         <v>915.489327</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="18"/>
-        <v>3.966869</v>
+        <v>3.0668690000000001</v>
       </c>
       <c r="E108">
         <v>-0.53313100000000002</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="16"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L108">
         <v>779</v>
@@ -4626,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4639,18 +4637,18 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3371080000000002</v>
+        <v>2.4121079999999999</v>
       </c>
       <c r="E109">
         <v>-0.36289199999999999</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="19"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L109">
         <v>783</v>
@@ -4659,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4672,14 +4670,14 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="18"/>
-        <v>4.1693610000000003</v>
+        <v>3.2193609999999997</v>
       </c>
       <c r="E110">
         <v>-0.58063900000000002</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="19"/>
@@ -4692,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4705,18 +4703,18 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3193609999999998</v>
+        <v>2.3443609999999997</v>
       </c>
       <c r="E111">
         <v>-0.58063900000000002</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L111">
         <v>791</v>
@@ -4725,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4738,18 +4736,18 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="18"/>
-        <v>2.5262549999999999</v>
+        <v>4.5262549999999999</v>
       </c>
       <c r="E112">
         <v>-0.47374500000000003</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="19"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L112">
         <v>791</v>
@@ -4758,13 +4756,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="17"/>
-        <v>998.34273245982388</v>
+        <v>996.71783416733376</v>
       </c>
       <c r="C113">
         <v>913.93803800000001</v>
@@ -4778,11 +4776,11 @@
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="19"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L113">
         <v>795</v>
@@ -4791,13 +4789,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="17"/>
-        <v>998.50044231795221</v>
+        <v>996.9802616577681</v>
       </c>
       <c r="C114">
         <v>912.34981300000004</v>
@@ -4811,11 +4809,11 @@
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="19"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L114">
         <v>799</v>
@@ -4824,27 +4822,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="17"/>
-        <v>997.22170660458755</v>
+        <v>997.99412720172779</v>
       </c>
       <c r="C115">
         <v>913.05158700000004</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="18"/>
-        <v>4.841869</v>
+        <v>3.7668689999999998</v>
       </c>
       <c r="E115">
         <v>-0.53313100000000002</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="19"/>
@@ -4857,13 +4855,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="17"/>
-        <v>997.44384667934924</v>
+        <v>998.16843611112665</v>
       </c>
       <c r="C116">
         <v>911.50029800000004</v>
@@ -4877,11 +4875,11 @@
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="19"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L116">
         <v>807</v>
@@ -4890,31 +4888,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="17"/>
-        <v>997.64822541439901</v>
+        <v>998.32759770115308</v>
       </c>
       <c r="C117">
         <v>911.46336299999996</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0760329999999998</v>
+        <v>3.9510329999999998</v>
       </c>
       <c r="E117">
         <v>-0.54896699999999998</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="16"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="19"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L117">
         <v>811</v>
@@ -4923,31 +4921,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="17"/>
-        <v>998.99481642553667</v>
+        <v>998.47292826301054</v>
       </c>
       <c r="C118">
         <v>910.57691199999999</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="18"/>
-        <v>5.2604189999999997</v>
+        <v>2.9604190000000004</v>
       </c>
       <c r="E118">
         <v>-0.48958099999999999</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="16"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L118">
         <v>816</v>
@@ -4956,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4969,18 +4967,18 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="18"/>
-        <v>4.2025000000000006</v>
+        <v>3.0274999999999999</v>
       </c>
       <c r="E119">
         <v>-0.4975</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="19"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L119">
         <v>820</v>
@@ -4989,13 +4987,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="17"/>
-        <v>998.726799483175</v>
+        <v>998.16843611112665</v>
       </c>
       <c r="C120">
         <v>910.13368600000001</v>
@@ -5009,11 +5007,11 @@
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="16"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G120">
         <f t="shared" ca="1" si="19"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L120">
         <v>824</v>
@@ -5022,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5035,18 +5033,18 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="18"/>
-        <v>3.2408449999999998</v>
+        <v>4.4658450000000007</v>
       </c>
       <c r="E121">
         <v>-0.43415500000000001</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L121">
         <v>828</v>
@@ -5055,31 +5053,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="17"/>
-        <v>999.32620530009149</v>
+        <v>998.93846535380226</v>
       </c>
       <c r="C122">
         <v>908.95175200000006</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="18"/>
-        <v>3.2327050000000002</v>
+        <v>4.4827050000000002</v>
       </c>
       <c r="E122">
         <v>-0.51729499999999995</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="16"/>
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="19"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L122">
         <v>832</v>
@@ -5088,13 +5086,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="17"/>
-        <v>998.57357660910009</v>
+        <v>999.39032534344835</v>
       </c>
       <c r="C123">
         <v>908.98868700000003</v>
@@ -5108,11 +5106,11 @@
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="16"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G123">
         <f t="shared" ca="1" si="19"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L123">
         <v>832</v>
@@ -5121,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5134,18 +5132,18 @@
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="18"/>
-        <v>3.40646</v>
+        <v>4.7064599999999999</v>
       </c>
       <c r="E124">
         <v>-0.49353999999999998</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="16"/>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G124">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L124">
         <v>837</v>
@@ -5154,13 +5152,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="17"/>
-        <v>998.79255866764674</v>
+        <v>999.19185326335764</v>
       </c>
       <c r="C125">
         <v>907.73288200000002</v>
@@ -5174,11 +5172,11 @@
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="16"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G125">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L125">
         <v>841</v>
@@ -5187,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5200,18 +5198,18 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="18"/>
-        <v>6.280214</v>
+        <v>3.5802139999999998</v>
       </c>
       <c r="E126">
         <v>-0.46978599999999998</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="16"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G126">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L126">
         <v>845</v>
@@ -5220,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5233,18 +5231,18 @@
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="18"/>
-        <v>6.3616640000000002</v>
+        <v>3.6116640000000002</v>
       </c>
       <c r="E127">
         <v>-0.51333600000000001</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="16"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G127">
         <f t="shared" ca="1" si="19"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L127">
         <v>849</v>
@@ -5253,31 +5251,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="17"/>
-        <v>999.38475757688627</v>
+        <v>999.63021362835184</v>
       </c>
       <c r="C128">
         <v>906.51401199999998</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="18"/>
-        <v>3.587688</v>
+        <v>6.3876879999999998</v>
       </c>
       <c r="E128">
         <v>-0.61231199999999997</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="16"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G128">
         <f t="shared" ca="1" si="19"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L128">
         <v>854</v>
@@ -5286,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5306,11 +5304,11 @@
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G129">
         <f t="shared" ca="1" si="19"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L129">
         <v>858</v>
@@ -5319,31 +5317,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="17"/>
-        <v>999.69724452546234</v>
+        <v>999.48703983440532</v>
       </c>
       <c r="C130">
         <v>905.369013</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="18"/>
-        <v>6.6139340000000004</v>
+        <v>5.1639339999999994</v>
       </c>
       <c r="E130">
         <v>-0.63606600000000002</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="16"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G130">
         <f t="shared" ca="1" si="19"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L130">
         <v>862</v>
@@ -5352,31 +5350,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="17"/>
-        <v>999.26764981212341</v>
+        <v>999.53161570537134</v>
       </c>
       <c r="C131">
         <v>904.85191699999996</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="18"/>
-        <v>5.2441390000000006</v>
+        <v>3.769139</v>
       </c>
       <c r="E131">
         <v>-0.65586100000000003</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F194" ca="1" si="20">G131+RANDBETWEEN(-20,5)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G131">
         <f t="shared" ca="1" si="19"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L131">
         <v>866</v>
@@ -5385,31 +5383,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="17"/>
-        <v>999.57231796507915</v>
+        <v>999.75212478233345</v>
       </c>
       <c r="C132">
         <v>905.29514200000006</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="18"/>
-        <v>6.6263920000000001</v>
+        <v>5.1263920000000001</v>
       </c>
       <c r="E132">
         <v>-0.87360800000000005</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="20"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G132">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L132">
         <v>870</v>
@@ -5418,19 +5416,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <f ca="1">C133+RANDBETWEEN(80,95)</f>
-        <v>992.18707800000004</v>
+        <v>999.18707800000004</v>
       </c>
       <c r="C133">
         <v>904.18707800000004</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D109:D162" ca="1" si="21">E133+RANDBETWEEN(-1,1)</f>
+        <f t="shared" ref="D133:D161" ca="1" si="21">E133+RANDBETWEEN(-1,1)</f>
         <v>-0.85381300000000004</v>
       </c>
       <c r="E133">
@@ -5438,11 +5436,11 @@
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="20"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G133">
         <f t="shared" ca="1" si="19"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L133">
         <v>875</v>
@@ -5451,13 +5449,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
-        <f t="shared" ref="B134:B139" ca="1" si="22">C134+RANDBETWEEN(80,95)</f>
-        <v>992.29788499999995</v>
+        <f t="shared" ref="B134:B136" ca="1" si="22">C134+RANDBETWEEN(80,95)</f>
+        <v>991.29788499999995</v>
       </c>
       <c r="C134">
         <v>904.29788499999995</v>
@@ -5471,11 +5469,11 @@
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="20"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G134">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L134">
         <v>875</v>
@@ -5484,31 +5482,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="22"/>
-        <v>989.48530500000004</v>
+        <v>983.48530500000004</v>
       </c>
       <c r="C135">
         <v>903.48530500000004</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="21"/>
-        <v>0.25704000000000005</v>
+        <v>-1.7429600000000001</v>
       </c>
       <c r="E135">
         <v>-0.74295999999999995</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G135">
         <f t="shared" ca="1" si="19"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L135">
         <v>879</v>
@@ -5517,31 +5515,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="22"/>
-        <v>997.669982</v>
+        <v>983.669982</v>
       </c>
       <c r="C136">
         <v>903.669982</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.8854850000000001</v>
+        <v>-0.88548499999999997</v>
       </c>
       <c r="E136">
         <v>-0.88548499999999997</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G136">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L136">
         <v>883</v>
@@ -5550,13 +5548,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <f ca="1">C137+RANDBETWEEN(85,90)</f>
-        <v>993.07627200000002</v>
+        <v>989.07627200000002</v>
       </c>
       <c r="C137">
         <v>904.07627200000002</v>
@@ -5570,11 +5568,11 @@
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="20"/>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G137">
         <f t="shared" ca="1" si="19"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L137">
         <v>887</v>
@@ -5583,31 +5581,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <f t="shared" ref="B138:B141" ca="1" si="23">C138+RANDBETWEEN(85,90)</f>
-        <v>989.34030600000006</v>
+        <v>992.34030600000006</v>
       </c>
       <c r="C138">
         <v>902.34030600000006</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.6132999999999953E-2</v>
+        <v>-1.016133</v>
       </c>
       <c r="E138">
         <v>-1.016133</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="20"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G138">
         <f t="shared" ca="1" si="19"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L138">
         <v>891</v>
@@ -5616,31 +5614,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="23"/>
-        <v>990.86014499999999</v>
+        <v>991.86014499999999</v>
       </c>
       <c r="C139">
         <v>901.86014499999999</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.4051000000000045E-2</v>
+        <v>-1.024051</v>
       </c>
       <c r="E139">
         <v>-1.024051</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="20"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G139">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L139">
         <v>896</v>
@@ -5649,13 +5647,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="23"/>
-        <v>987.30611299999998</v>
+        <v>989.30611299999998</v>
       </c>
       <c r="C140">
         <v>901.30611299999998</v>
@@ -5682,31 +5680,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="23"/>
-        <v>990.12143600000002</v>
+        <v>986.12143600000002</v>
       </c>
       <c r="C141">
         <v>901.12143600000002</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.9884200000000001</v>
+        <v>-0.98841999999999997</v>
       </c>
       <c r="E141">
         <v>-0.98841999999999997</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G141">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L141">
         <v>904</v>
@@ -5715,31 +5713,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <f ca="1">C142+RANDBETWEEN(70,80)</f>
-        <v>972.60433999999998</v>
+        <v>973.60433999999998</v>
       </c>
       <c r="C142">
         <v>900.60433999999998</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.087396</v>
+        <v>-8.7396000000000029E-2</v>
       </c>
       <c r="E142">
         <v>-1.087396</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="20"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G142">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L142">
         <v>908</v>
@@ -5748,31 +5746,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
-        <f t="shared" ref="B143:B148" ca="1" si="24">C143+RANDBETWEEN(70,80)</f>
-        <v>973.19804999999997</v>
+        <f t="shared" ref="B143:B147" ca="1" si="24">C143+RANDBETWEEN(70,80)</f>
+        <v>974.19804999999997</v>
       </c>
       <c r="C143">
         <v>900.19804999999997</v>
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.5724000000000107E-2</v>
+        <v>-2.0557240000000001</v>
       </c>
       <c r="E143">
         <v>-1.0557240000000001</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="20"/>
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G143">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L143">
         <v>912</v>
@@ -5781,31 +5779,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="24"/>
-        <v>970.08998599999995</v>
+        <v>975.08998599999995</v>
       </c>
       <c r="C144">
         <v>899.08998599999995</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.0636419999999998</v>
+        <v>-1.063642</v>
       </c>
       <c r="E144">
         <v>-1.063642</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="20"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G144">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L144">
         <v>917</v>
@@ -5814,31 +5812,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="24"/>
-        <v>969.79175999999995</v>
+        <v>979.79175999999995</v>
       </c>
       <c r="C145">
         <v>899.79175999999995</v>
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.1547000000000001</v>
+        <v>-0.15470000000000006</v>
       </c>
       <c r="E145">
         <v>-1.1547000000000001</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="20"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G145">
         <f t="shared" ca="1" si="19"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L145">
         <v>917</v>
@@ -5847,31 +5845,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <f ca="1">C146+RANDBETWEEN(70,80)</f>
-        <v>978.16385700000001</v>
+        <v>976.16385700000001</v>
       </c>
       <c r="C146">
         <v>899.16385700000001</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.150741</v>
+        <v>-1.150741</v>
       </c>
       <c r="E146">
         <v>-1.150741</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G146">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L146">
         <v>921</v>
@@ -5880,31 +5878,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="24"/>
-        <v>977.72063100000003</v>
+        <v>968.72063100000003</v>
       </c>
       <c r="C147">
         <v>898.72063100000003</v>
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.166577</v>
+        <v>-0.16657699999999998</v>
       </c>
       <c r="E147">
         <v>-1.166577</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G147">
         <f t="shared" ca="1" si="19"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L147">
         <v>925</v>
@@ -5913,31 +5911,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <f ca="1">C148+RANDBETWEEN(60,70)</f>
-        <v>961.31434200000001</v>
+        <v>966.31434200000001</v>
       </c>
       <c r="C148">
         <v>898.31434200000001</v>
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.289307</v>
+        <v>-0.28930699999999998</v>
       </c>
       <c r="E148">
         <v>-1.289307</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="20"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G148">
         <f t="shared" ca="1" si="19"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L148">
         <v>929</v>
@@ -5946,31 +5944,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
-        <f t="shared" ref="B149:B151" ca="1" si="25">C149+RANDBETWEEN(60,70)</f>
-        <v>957.72337400000004</v>
+        <f t="shared" ref="B149:B150" ca="1" si="25">C149+RANDBETWEEN(60,70)</f>
+        <v>960.72337400000004</v>
       </c>
       <c r="C149">
         <v>897.72337400000004</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.2813889999999999</v>
+        <v>-0.28138899999999989</v>
       </c>
       <c r="E149">
         <v>-1.2813889999999999</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="20"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G149">
         <f t="shared" ca="1" si="19"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L149">
         <v>933</v>
@@ -5979,31 +5977,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="25"/>
-        <v>958.83692299999996</v>
+        <v>961.83692299999996</v>
       </c>
       <c r="C150">
         <v>896.83692299999996</v>
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.3368150000000001</v>
+        <v>-0.33681500000000009</v>
       </c>
       <c r="E150">
         <v>-1.3368150000000001</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G150">
         <f t="shared" ca="1" si="19"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L150">
         <v>938</v>
@@ -6012,31 +6010,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <f ca="1">C151+RANDBETWEEN(50,60)</f>
-        <v>949.98466499999995</v>
+        <v>947.98466499999995</v>
       </c>
       <c r="C151">
         <v>896.98466499999995</v>
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="21"/>
-        <v>-0.34473299999999996</v>
+        <v>-2.3447329999999997</v>
       </c>
       <c r="E151">
         <v>-1.344733</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="20"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G151">
         <f t="shared" ca="1" si="19"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L151">
         <v>942</v>
@@ -6045,31 +6043,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
-        <f t="shared" ref="B152:B153" ca="1" si="26">C152+RANDBETWEEN(50,60)</f>
-        <v>948.57837500000005</v>
+        <f t="shared" ref="B152" ca="1" si="26">C152+RANDBETWEEN(50,60)</f>
+        <v>949.57837500000005</v>
       </c>
       <c r="C152">
         <v>896.57837500000005</v>
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="21"/>
-        <v>-0.34473299999999996</v>
+        <v>-1.344733</v>
       </c>
       <c r="E152">
         <v>-1.344733</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="20"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G152">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L152">
         <v>946</v>
@@ -6078,13 +6076,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <f ca="1">C153+RANDBETWEEN(40,50)</f>
-        <v>938.09821399999998</v>
+        <v>940.09821399999998</v>
       </c>
       <c r="C153">
         <v>896.09821399999998</v>
@@ -6098,11 +6096,11 @@
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="20"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G153">
         <f t="shared" ca="1" si="19"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L153">
         <v>950</v>
@@ -6111,31 +6109,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
-        <f t="shared" ref="B154:B155" ca="1" si="27">C154+RANDBETWEEN(40,50)</f>
-        <v>935.72886000000005</v>
+        <f t="shared" ref="B154" ca="1" si="27">C154+RANDBETWEEN(40,50)</f>
+        <v>941.72886000000005</v>
       </c>
       <c r="C154">
         <v>895.72886000000005</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.4476680000000002</v>
+        <v>-0.44766799999999995</v>
       </c>
       <c r="E154">
         <v>-1.447668</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="20"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G154">
         <f t="shared" ca="1" si="19"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L154">
         <v>954</v>
@@ -6144,13 +6142,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <f ca="1">C155+RANDBETWEEN(30,40)</f>
-        <v>930.17482800000005</v>
+        <v>929.17482800000005</v>
       </c>
       <c r="C155">
         <v>895.17482800000005</v>
@@ -6164,11 +6162,11 @@
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="20"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G155">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L155">
         <v>958</v>
@@ -6177,13 +6175,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
-        <f t="shared" ref="B156:B157" ca="1" si="28">C156+RANDBETWEEN(30,40)</f>
-        <v>931.17757099999994</v>
+        <f t="shared" ref="B156" ca="1" si="28">C156+RANDBETWEEN(30,40)</f>
+        <v>930.17757099999994</v>
       </c>
       <c r="C156">
         <v>894.17757099999994</v>
@@ -6197,11 +6195,11 @@
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="20"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G156">
         <f t="shared" ca="1" si="19"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L156">
         <v>958</v>
@@ -6210,13 +6208,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <f ca="1">C157+RANDBETWEEN(20,30)</f>
-        <v>919.65773200000001</v>
+        <v>914.65773200000001</v>
       </c>
       <c r="C157">
         <v>894.65773200000001</v>
@@ -6230,11 +6228,11 @@
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G157">
         <f t="shared" ca="1" si="19"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L157">
         <v>962</v>
@@ -6243,13 +6241,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:B160" ca="1" si="29">C158+RANDBETWEEN(20,30)</f>
-        <v>918.39918399999999</v>
+        <f t="shared" ref="B158" ca="1" si="29">C158+RANDBETWEEN(20,30)</f>
+        <v>914.39918399999999</v>
       </c>
       <c r="C158">
         <v>894.39918399999999</v>
@@ -6263,11 +6261,11 @@
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="20"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G158">
         <f t="shared" ca="1" si="19"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L158">
         <v>966</v>
@@ -6276,31 +6274,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <f ca="1">C159+RANDBETWEEN(10,20)</f>
-        <v>914.02982899999995</v>
+        <v>906.02982899999995</v>
       </c>
       <c r="C159">
         <v>894.02982899999995</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="21"/>
-        <v>-0.29326600000000003</v>
+        <v>-2.293266</v>
       </c>
       <c r="E159">
         <v>-1.293266</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="20"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G159">
         <f t="shared" ca="1" si="19"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L159">
         <v>970</v>
@@ -6309,13 +6307,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <f t="shared" ref="B160:B161" ca="1" si="30">C160+RANDBETWEEN(10,20)</f>
-        <v>913.549668</v>
+        <v>903.549668</v>
       </c>
       <c r="C160">
         <v>893.549668</v>
@@ -6329,7 +6327,7 @@
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="20"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G160">
         <f t="shared" ca="1" si="19"/>
@@ -6342,13 +6340,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="30"/>
-        <v>904.88757299999997</v>
+        <v>901.88757299999997</v>
       </c>
       <c r="C161">
         <v>891.88757299999997</v>
@@ -6362,11 +6360,11 @@
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G161">
         <f t="shared" ca="1" si="19"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L161">
         <v>977</v>
@@ -6375,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6395,11 +6393,11 @@
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="20"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G162">
         <f t="shared" ref="G162:G221" ca="1" si="31">RANDBETWEEN(65,75)</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L162">
         <v>981</v>
@@ -6408,31 +6406,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <f t="shared" ref="B163:B221" ca="1" si="32">100*(10-EXP(($A$162-A163)/RANDBETWEEN(14,16)))</f>
-        <v>906.4493014968383</v>
+        <v>906.89372202959771</v>
       </c>
       <c r="C163">
         <v>892.14612099999999</v>
       </c>
       <c r="D163">
         <f t="shared" ref="D163:D221" ca="1" si="33">E163+RANDBETWEEN(3,5)*(A163-$A$162)/40</f>
-        <v>-1.1457569999999999</v>
+        <v>-1.120757</v>
       </c>
       <c r="E163">
         <v>-1.245757</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G163">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L163">
         <v>985</v>
@@ -6441,31 +6439,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="32"/>
-        <v>912.48266809570532</v>
+        <v>911.75030974154049</v>
       </c>
       <c r="C164">
         <v>891.18579899999997</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.0299210000000001</v>
+        <v>-1.0799210000000001</v>
       </c>
       <c r="E164">
         <v>-1.229921</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="20"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G164">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L164">
         <v>989</v>
@@ -6474,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6487,18 +6485,18 @@
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.0128389999999998</v>
+        <v>-0.93783899999999987</v>
       </c>
       <c r="E165">
         <v>-1.2378389999999999</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="20"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G165">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L165">
         <v>993</v>
@@ -6507,31 +6505,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="32"/>
-        <v>924.85227069247139</v>
+        <v>922.11992169285941</v>
       </c>
       <c r="C166">
         <v>891.25967000000003</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.81012600000000001</v>
+        <v>-0.71012600000000003</v>
       </c>
       <c r="E166">
         <v>-1.210126</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="20"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G166">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L166">
         <v>997</v>
@@ -6540,13 +6538,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="32"/>
-        <v>930.03274626248697</v>
+        <v>926.83843710533574</v>
       </c>
       <c r="C167">
         <v>890.44709</v>
@@ -6560,11 +6558,11 @@
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="20"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G167">
         <f t="shared" ca="1" si="31"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L167">
         <v>997</v>
@@ -6573,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6586,18 +6584,18 @@
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.51555299999999993</v>
+        <v>-0.66555299999999995</v>
       </c>
       <c r="E168">
         <v>-1.2655529999999999</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G168">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L168">
         <v>1001</v>
@@ -6606,31 +6604,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="32"/>
-        <v>935.43514735721067</v>
+        <v>939.34693402873654</v>
       </c>
       <c r="C169">
         <v>889.63450999999998</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.36679799999999996</v>
+        <v>-0.541798</v>
       </c>
       <c r="E169">
         <v>-1.241798</v>
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="20"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G169">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L169">
         <v>1005</v>
@@ -6639,13 +6637,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="32"/>
-        <v>939.34693402873654</v>
+        <v>943.52818779922404</v>
       </c>
       <c r="C170">
         <v>889.63450999999998</v>
@@ -6659,11 +6657,11 @@
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="20"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G170">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L170">
         <v>1009</v>
@@ -6672,31 +6670,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="32"/>
-        <v>943.02171752690765</v>
+        <v>945.11883639059738</v>
       </c>
       <c r="C171">
         <v>888.41564000000005</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="33"/>
-        <v>-7.7207999999999943E-2</v>
+        <v>-0.5272079999999999</v>
       </c>
       <c r="E171">
         <v>-1.2022079999999999</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G171">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L171">
         <v>1013</v>
@@ -6705,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6725,11 +6723,11 @@
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="20"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G172">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L172">
         <v>1016</v>
@@ -6738,31 +6736,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="32"/>
-        <v>949.71684220290592</v>
+        <v>954.42059816719825</v>
       </c>
       <c r="C173">
         <v>888.45257600000002</v>
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="33"/>
-        <v>0.10548800000000003</v>
+        <v>-0.44451200000000002</v>
       </c>
       <c r="E173">
         <v>-1.269512</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="20"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G173">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L173">
         <v>1020</v>
@@ -6771,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6791,11 +6789,11 @@
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G174">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L174">
         <v>1024</v>
@@ -6804,31 +6802,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="32"/>
-        <v>960.48822386731126</v>
+        <v>955.62526899189209</v>
       </c>
       <c r="C175">
         <v>887.04902900000002</v>
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="33"/>
-        <v>0.399038</v>
+        <v>-0.25096200000000002</v>
       </c>
       <c r="E175">
         <v>-1.225962</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G175">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L175">
         <v>1028</v>
@@ -6837,31 +6835,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="32"/>
-        <v>960.67592791314007</v>
+        <v>963.21205588285568</v>
       </c>
       <c r="C176">
         <v>886.82741599999997</v>
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="33"/>
-        <v>0.15820199999999995</v>
+        <v>-0.19179799999999991</v>
       </c>
       <c r="E176">
         <v>-1.241798</v>
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="20"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G176">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L176">
         <v>1032</v>
@@ -6870,31 +6868,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="32"/>
-        <v>963.21205588285568</v>
+        <v>960.83943733232002</v>
       </c>
       <c r="C177">
         <v>886.79048</v>
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="33"/>
-        <v>0.15526700000000004</v>
+        <v>0.53026700000000004</v>
       </c>
       <c r="E177">
         <v>-1.344733</v>
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G177">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L177">
         <v>1036</v>
@@ -6903,13 +6901,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="32"/>
-        <v>965.5846213134588</v>
+        <v>963.21205588285568</v>
       </c>
       <c r="C178">
         <v>886.27338399999996</v>
@@ -6923,7 +6921,7 @@
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G178">
         <f t="shared" ca="1" si="31"/>
@@ -6936,31 +6934,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="32"/>
-        <v>970.30779742721029</v>
+        <v>965.44092474230251</v>
       </c>
       <c r="C179">
         <v>886.42112599999996</v>
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.11724200000000007</v>
+        <v>0.30775799999999998</v>
       </c>
       <c r="E179">
         <v>-1.392242</v>
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="20"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G179">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L179">
         <v>1040</v>
@@ -6969,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6989,11 +6987,11 @@
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="20"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G180">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L180">
         <v>1044</v>
@@ -7002,13 +7000,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="32"/>
-        <v>971.82307109050419</v>
+        <v>969.50172312889401</v>
       </c>
       <c r="C181">
         <v>884.68516</v>
@@ -7022,11 +7020,11 @@
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G181">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L181">
         <v>1048</v>
@@ -7035,13 +7033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="32"/>
-        <v>973.64028618842724</v>
+        <v>971.34952031398109</v>
       </c>
       <c r="C182">
         <v>884.42661099999998</v>
@@ -7055,11 +7053,11 @@
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="20"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G182">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L182">
         <v>1052</v>
@@ -7068,13 +7066,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="32"/>
-        <v>977.6869839851571</v>
+        <v>973.08536512708167</v>
       </c>
       <c r="C183">
         <v>884.27886999999998</v>
@@ -7088,11 +7086,11 @@
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G183">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L183">
         <v>1055</v>
@@ -7101,13 +7099,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="32"/>
-        <v>979.22518128563991</v>
+        <v>976.93068177450368</v>
       </c>
       <c r="C184">
         <v>883.983386</v>
@@ -7121,11 +7119,11 @@
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="20"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G184">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L184">
         <v>1059</v>
@@ -7134,13 +7132,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="32"/>
-        <v>978.41849166013105</v>
+        <v>976.24791809045416</v>
       </c>
       <c r="C185">
         <v>883.24467700000002</v>
@@ -7154,11 +7152,11 @@
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="20"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G185">
         <f t="shared" ca="1" si="31"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L185">
         <v>1063</v>
@@ -7167,27 +7165,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="32"/>
-        <v>981.99076878520475</v>
+        <v>979.81034820053446</v>
       </c>
       <c r="C186">
         <v>882.80145200000004</v>
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="33"/>
-        <v>0.90086399999999989</v>
+        <v>0.30086400000000002</v>
       </c>
       <c r="E186">
         <v>-1.499136</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="20"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G186">
         <f t="shared" ca="1" si="31"/>
@@ -7200,31 +7198,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="32"/>
-        <v>979.03886128489023</v>
+        <v>983.23227512482026</v>
       </c>
       <c r="C187">
         <v>882.24742000000003</v>
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="33"/>
-        <v>1.6654549999999999</v>
+        <v>1.0404549999999999</v>
       </c>
       <c r="E187">
         <v>-1.4595450000000001</v>
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="20"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G187">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L187">
         <v>1071</v>
@@ -7233,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7246,18 +7244,18 @@
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="33"/>
-        <v>0.30833899999999992</v>
+        <v>1.608339</v>
       </c>
       <c r="E188">
         <v>-1.641661</v>
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="20"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G188">
         <f t="shared" ca="1" si="31"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L188">
         <v>1075</v>
@@ -7266,13 +7264,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="32"/>
-        <v>985.46442987661533</v>
+        <v>981.50186000926954</v>
       </c>
       <c r="C189">
         <v>881.50871099999995</v>
@@ -7286,11 +7284,11 @@
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="20"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L189">
         <v>1079</v>
@@ -7299,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7312,18 +7310,18 @@
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="33"/>
-        <v>0.58106900000000006</v>
+        <v>1.981069</v>
       </c>
       <c r="E190">
         <v>-1.518931</v>
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="20"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G190">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L190">
         <v>1079</v>
@@ -7332,31 +7330,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="32"/>
-        <v>983.67544875460419</v>
+        <v>985.53348233610052</v>
       </c>
       <c r="C191">
         <v>881.10242100000005</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="33"/>
-        <v>1.491922</v>
+        <v>0.76692199999999988</v>
       </c>
       <c r="E191">
         <v>-1.4080779999999999</v>
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="20"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G191">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L191">
         <v>1083</v>
@@ -7365,31 +7363,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="32"/>
-        <v>986.46647167633876</v>
+        <v>984.6645033155072</v>
       </c>
       <c r="C192">
         <v>880.10516399999995</v>
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="33"/>
-        <v>1.504823</v>
+        <v>0.75482300000000002</v>
       </c>
       <c r="E192">
         <v>-1.495177</v>
       </c>
       <c r="F192">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G192">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L192">
         <v>1087</v>
@@ -7398,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7411,18 +7409,18 @@
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="33"/>
-        <v>2.3441920000000001</v>
+        <v>1.5691920000000001</v>
       </c>
       <c r="E193">
         <v>-1.5308079999999999</v>
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G193">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L193">
         <v>1091</v>
@@ -7431,27 +7429,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="32"/>
-        <v>988.15581709861954</v>
+        <v>986.46647167633876</v>
       </c>
       <c r="C194">
         <v>880.25290500000006</v>
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="33"/>
-        <v>0.87315100000000001</v>
+        <v>1.6731510000000003</v>
       </c>
       <c r="E194">
         <v>-1.5268489999999999</v>
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="20"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G194">
         <f t="shared" ca="1" si="31"/>
@@ -7464,31 +7462,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="32"/>
-        <v>990.53096189814573</v>
+        <v>988.91968416376665</v>
       </c>
       <c r="C195">
         <v>879.40338999999994</v>
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="33"/>
-        <v>0.99565900000000007</v>
+        <v>1.8206589999999998</v>
       </c>
       <c r="E195">
         <v>-1.479341</v>
       </c>
       <c r="F195">
         <f t="shared" ref="F195:F221" ca="1" si="34">G195+RANDBETWEEN(-20,5)</f>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G195">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L195">
         <v>1098</v>
@@ -7497,31 +7495,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="32"/>
-        <v>988.05670317332806</v>
+        <v>989.63428713884718</v>
       </c>
       <c r="C196">
         <v>878.775487</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="33"/>
-        <v>1.0389869999999999</v>
+        <v>2.7389869999999998</v>
       </c>
       <c r="E196">
         <v>-1.5110129999999999</v>
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="34"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G196">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L196">
         <v>1102</v>
@@ -7530,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7543,18 +7541,18 @@
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="33"/>
-        <v>1.0427249999999999</v>
+        <v>2.7927249999999999</v>
       </c>
       <c r="E197">
         <v>-1.5822750000000001</v>
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="34"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G197">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L197">
         <v>1106</v>
@@ -7563,31 +7561,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="32"/>
-        <v>992.35737130092309</v>
+        <v>989.46007754381355</v>
       </c>
       <c r="C198">
         <v>878.96016499999996</v>
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="33"/>
-        <v>2.0493969999999999</v>
+        <v>1.1493970000000002</v>
       </c>
       <c r="E198">
         <v>-1.550603</v>
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="34"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G198">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L198">
         <v>1110</v>
@@ -7596,31 +7594,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="32"/>
-        <v>990.09865916361741</v>
+        <v>992.88423287919181</v>
       </c>
       <c r="C199">
         <v>877.99984300000006</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="33"/>
-        <v>3.0348059999999997</v>
+        <v>2.1098059999999998</v>
       </c>
       <c r="E199">
         <v>-1.5901940000000001</v>
       </c>
       <c r="F199">
         <f t="shared" ca="1" si="34"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G199">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L199">
         <v>1113</v>
@@ -7629,31 +7627,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="32"/>
-        <v>993.37477408477389</v>
+        <v>992.0606067722922</v>
       </c>
       <c r="C200">
         <v>877.74129500000004</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="33"/>
-        <v>1.259806</v>
+        <v>2.2098059999999995</v>
       </c>
       <c r="E200">
         <v>-1.5901940000000001</v>
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="34"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G200">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L200">
         <v>1117</v>
@@ -7662,13 +7660,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="32"/>
-        <v>993.83149874320247</v>
+        <v>991.26209738045782</v>
       </c>
       <c r="C201">
         <v>876.89177900000004</v>
@@ -7682,11 +7680,11 @@
       </c>
       <c r="F201">
         <f t="shared" ca="1" si="34"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G201">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L201">
         <v>1117</v>
@@ -7695,13 +7693,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="32"/>
-        <v>993.0516548777199</v>
+        <v>994.25673807323824</v>
       </c>
       <c r="C202">
         <v>876.81790799999999</v>
@@ -7715,11 +7713,11 @@
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="34"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G202">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L202">
         <v>1121</v>
@@ -7728,31 +7726,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203">
         <v>201</v>
       </c>
       <c r="B203">
         <f t="shared" ca="1" si="32"/>
-        <v>993.49977460369644</v>
+        <v>994.652662585901</v>
       </c>
       <c r="C203">
         <v>876.67016599999999</v>
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="33"/>
-        <v>1.3581170000000002</v>
+        <v>2.3831169999999995</v>
       </c>
       <c r="E203">
         <v>-1.7168829999999999</v>
       </c>
       <c r="F203">
         <f t="shared" ca="1" si="34"/>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G203">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L203">
         <v>1124</v>
@@ -7761,31 +7759,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204">
         <v>202</v>
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="32"/>
-        <v>992.75602429657488</v>
+        <v>993.9189937374781</v>
       </c>
       <c r="C204">
         <v>875.74677999999994</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="33"/>
-        <v>2.4633220000000002</v>
+        <v>3.5133220000000001</v>
       </c>
       <c r="E204">
         <v>-1.7366779999999999</v>
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="34"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G204">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L204">
         <v>1128</v>
@@ -7794,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7814,11 +7812,11 @@
       </c>
       <c r="F205">
         <f t="shared" ca="1" si="34"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G205">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L205">
         <v>1132</v>
@@ -7827,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7847,11 +7845,11 @@
       </c>
       <c r="F206">
         <f t="shared" ca="1" si="34"/>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G206">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L206">
         <v>1135</v>
@@ -7860,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7880,11 +7878,11 @@
       </c>
       <c r="F207">
         <f t="shared" ca="1" si="34"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G207">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L207">
         <v>1139</v>
@@ -7893,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7906,14 +7904,14 @@
       </c>
       <c r="D208">
         <f t="shared" ca="1" si="33"/>
-        <v>3.9183050000000001</v>
+        <v>1.6183050000000001</v>
       </c>
       <c r="E208">
         <v>-1.8316950000000001</v>
       </c>
       <c r="F208">
         <f t="shared" ca="1" si="34"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G208">
         <f t="shared" ca="1" si="31"/>
@@ -7926,31 +7924,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209">
         <f t="shared" ca="1" si="32"/>
-        <v>994.70019415966442</v>
+        <v>995.64276861310782</v>
       </c>
       <c r="C209">
         <v>873.38291100000004</v>
       </c>
       <c r="D209">
         <f t="shared" ca="1" si="33"/>
-        <v>2.8762230000000004</v>
+        <v>1.7012229999999999</v>
       </c>
       <c r="E209">
         <v>-1.823777</v>
       </c>
       <c r="F209">
         <f t="shared" ca="1" si="34"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G209">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L209">
         <v>1147</v>
@@ -7959,31 +7957,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="32"/>
-        <v>995.92377960216345</v>
+        <v>996.75667591052047</v>
       </c>
       <c r="C210">
         <v>873.82613700000002</v>
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="33"/>
-        <v>4.1960189999999997</v>
+        <v>2.9960189999999995</v>
       </c>
       <c r="E210">
         <v>-1.8039810000000001</v>
       </c>
       <c r="F210">
         <f t="shared" ca="1" si="34"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G210">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L210">
         <v>1151</v>
@@ -7992,31 +7990,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="32"/>
-        <v>996.1866673452954</v>
+        <v>995.32293776160418</v>
       </c>
       <c r="C211">
         <v>872.93968600000005</v>
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="33"/>
-        <v>3.0485100000000003</v>
+        <v>4.2735099999999999</v>
       </c>
       <c r="E211">
         <v>-1.8514900000000001</v>
       </c>
       <c r="F211">
         <f t="shared" ca="1" si="34"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G211">
         <f t="shared" ca="1" si="31"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L211">
         <v>1155</v>
@@ -8025,31 +8023,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="32"/>
-        <v>997.18843402510288</v>
+        <v>995.60630663765937</v>
       </c>
       <c r="C212">
         <v>872.90274999999997</v>
       </c>
       <c r="D212">
         <f t="shared" ca="1" si="33"/>
-        <v>1.902469</v>
+        <v>3.152469</v>
       </c>
       <c r="E212">
         <v>-1.847531</v>
       </c>
       <c r="F212">
         <f t="shared" ca="1" si="34"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G212">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L212">
         <v>1155</v>
@@ -8058,31 +8056,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="32"/>
-        <v>996.66267300396748</v>
+        <v>997.38225556809095</v>
       </c>
       <c r="C213">
         <v>872.20097699999997</v>
       </c>
       <c r="D213">
         <f t="shared" ca="1" si="33"/>
-        <v>1.9022470000000002</v>
+        <v>4.4522469999999998</v>
       </c>
       <c r="E213">
         <v>-1.9227529999999999</v>
       </c>
       <c r="F213">
         <f t="shared" ca="1" si="34"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G213">
         <f t="shared" ca="1" si="31"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L213">
         <v>1159</v>
@@ -8091,31 +8089,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214">
         <f ca="1">100*(10-EXP(($A$162-A214)/RANDBETWEEN(14,16)))</f>
-        <v>996.87790728387688</v>
+        <v>997.56271559267202</v>
       </c>
       <c r="C214">
         <v>872.20097699999997</v>
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="33"/>
-        <v>3.340592</v>
+        <v>4.6405919999999998</v>
       </c>
       <c r="E214">
         <v>-1.8594079999999999</v>
       </c>
       <c r="F214">
         <f t="shared" ca="1" si="34"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G214">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L214">
         <v>1163</v>
@@ -8124,27 +8122,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215">
         <f t="shared" ca="1" si="32"/>
-        <v>996.35750026626351</v>
+        <v>997.73073520478397</v>
       </c>
       <c r="C215">
         <v>871.64694499999996</v>
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="33"/>
-        <v>4.6705749999999995</v>
+        <v>3.3455749999999997</v>
       </c>
       <c r="E215">
         <v>-1.9544250000000001</v>
       </c>
       <c r="F215">
         <f t="shared" ca="1" si="34"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G215">
         <f t="shared" ca="1" si="31"/>
@@ -8157,31 +8155,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216">
         <f t="shared" ca="1" si="32"/>
-        <v>997.8871720118816</v>
+        <v>997.26762775527072</v>
       </c>
       <c r="C216">
         <v>871.57307400000002</v>
       </c>
       <c r="D216">
         <f t="shared" ca="1" si="33"/>
-        <v>2.0836980000000001</v>
+        <v>3.4336980000000006</v>
       </c>
       <c r="E216">
         <v>-1.966302</v>
       </c>
       <c r="F216">
         <f t="shared" ca="1" si="34"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G216">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L216">
         <v>1170</v>
@@ -8190,31 +8188,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217">
         <f t="shared" ca="1" si="32"/>
-        <v>996.78550526731249</v>
+        <v>998.03282450034612</v>
       </c>
       <c r="C217">
         <v>870.64968799999997</v>
       </c>
       <c r="D217">
         <f t="shared" ca="1" si="33"/>
-        <v>4.9007800000000001</v>
+        <v>2.1507800000000001</v>
       </c>
       <c r="E217">
         <v>-1.9742200000000001</v>
       </c>
       <c r="F217">
         <f t="shared" ca="1" si="34"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G217">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L217">
         <v>1174</v>
@@ -8223,13 +8221,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218">
         <f t="shared" ca="1" si="32"/>
-        <v>997.6087007137196</v>
+        <v>998.16843611112665</v>
       </c>
       <c r="C218">
         <v>869.72630100000003</v>
@@ -8243,11 +8241,11 @@
       </c>
       <c r="F218">
         <f t="shared" ca="1" si="34"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G218">
         <f t="shared" ca="1" si="31"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L218">
         <v>1178</v>
@@ -8256,13 +8254,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="B219">
         <f t="shared" ca="1" si="32"/>
-        <v>998.29469903441998</v>
+        <v>997.16321835502879</v>
       </c>
       <c r="C219">
         <v>870.28033300000004</v>
@@ -8276,11 +8274,11 @@
       </c>
       <c r="F219">
         <f t="shared" ca="1" si="34"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G219">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L219">
         <v>1182</v>
@@ -8289,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8302,18 +8300,18 @@
       </c>
       <c r="D220">
         <f t="shared" ca="1" si="33"/>
-        <v>3.7505579999999998</v>
+        <v>2.3005579999999997</v>
       </c>
       <c r="E220">
         <v>-2.049442</v>
       </c>
       <c r="F220">
         <f t="shared" ca="1" si="34"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G220">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L220">
         <v>1185</v>
@@ -8322,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8342,11 +8340,11 @@
       </c>
       <c r="F221">
         <f t="shared" ca="1" si="34"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G221">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L221">
         <v>1189</v>
